--- a/estimated_x_values.xlsx
+++ b/estimated_x_values.xlsx
@@ -689,7 +689,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>muX</c:v>
+            <c:v>uX</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="63500" cap="rnd">
@@ -1076,7 +1076,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1942-4067-9426-F5789FB8BD8E}"/>
             </c:ext>
@@ -6798,6 +6798,794 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>uX+10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>estimated_x_values!$B$12:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>estimated_x_values!$B$22:$DG$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="110"/>
+                <c:pt idx="0">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>81.4389058269835</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:v>uX-10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>estimated_x_values!$B$12:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>estimated_x_values!$B$21:$DG$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="110"/>
+                <c:pt idx="0">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>61.4389058269835</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -6806,12 +7594,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="558702592"/>
-        <c:axId val="558707688"/>
+        <c:axId val="558081648"/>
+        <c:axId val="558082824"/>
         <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="558702592"/>
+        <c:axId val="558081648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="550"/>
@@ -6870,12 +7658,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558707688"/>
+        <c:crossAx val="558082824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="558707688"/>
+        <c:axId val="558082824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -6934,7 +7722,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558702592"/>
+        <c:crossAx val="558081648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6962,7 +7750,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -7582,23 +8370,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>483657</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
+      <xdr:rowOff>174624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD865E44-B30F-4BA6-938D-53C1B989FF0E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD865E44-B30F-4BA6-938D-53C1B989FF0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7916,10 +8704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DG19"/>
+  <dimension ref="A1:DG22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AA53" sqref="AA53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14037,6 +14825,890 @@
         <v>500</v>
       </c>
     </row>
+    <row r="21" spans="2:111" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <f>B10-10</f>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="C21">
+        <f>C10-10</f>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21:BO21" si="2">D10-10</f>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="AG21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="AI21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="AJ21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="AK21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="AL21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="AM21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="AN21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="AO21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="AP21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="AQ21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="AR21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="AS21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="AT21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="AU21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="AV21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="AW21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="AX21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="AY21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="AZ21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="BA21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="BB21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="BC21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="BD21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="BE21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="BF21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="BG21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="BH21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="BI21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="BJ21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="BK21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="BL21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="BM21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="BN21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="BO21">
+        <f t="shared" si="2"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="BP21">
+        <f t="shared" ref="BP21:DG21" si="3">BP10-10</f>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="BQ21">
+        <f t="shared" si="3"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="BR21">
+        <f t="shared" si="3"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="BS21">
+        <f t="shared" si="3"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="BT21">
+        <f t="shared" si="3"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="BU21">
+        <f t="shared" si="3"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="BV21">
+        <f t="shared" si="3"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="BW21">
+        <f t="shared" si="3"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="BX21">
+        <f t="shared" si="3"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="BY21">
+        <f t="shared" si="3"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="BZ21">
+        <f t="shared" si="3"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="CA21">
+        <f t="shared" si="3"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="CB21">
+        <f t="shared" si="3"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="CC21">
+        <f t="shared" si="3"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="CD21">
+        <f t="shared" si="3"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="CE21">
+        <f t="shared" si="3"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="CF21">
+        <f t="shared" si="3"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="CG21">
+        <f t="shared" si="3"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="CH21">
+        <f t="shared" si="3"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="CI21">
+        <f t="shared" si="3"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="CJ21">
+        <f t="shared" si="3"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="CK21">
+        <f t="shared" si="3"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="CL21">
+        <f t="shared" si="3"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="CM21">
+        <f t="shared" si="3"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="CN21">
+        <f t="shared" si="3"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="CO21">
+        <f t="shared" si="3"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="CP21">
+        <f t="shared" si="3"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="CQ21">
+        <f t="shared" si="3"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="CR21">
+        <f t="shared" si="3"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="CS21">
+        <f t="shared" si="3"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="CT21">
+        <f t="shared" si="3"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="CU21">
+        <f t="shared" si="3"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="CV21">
+        <f t="shared" si="3"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="CW21">
+        <f t="shared" si="3"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="CX21">
+        <f t="shared" si="3"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="CY21">
+        <f t="shared" si="3"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="CZ21">
+        <f t="shared" si="3"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="DA21">
+        <f t="shared" si="3"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="DB21">
+        <f t="shared" si="3"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="DC21">
+        <f t="shared" si="3"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="DD21">
+        <f t="shared" si="3"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="DE21">
+        <f t="shared" si="3"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="DF21">
+        <f t="shared" si="3"/>
+        <v>61.4389058269835</v>
+      </c>
+      <c r="DG21">
+        <f t="shared" si="3"/>
+        <v>61.4389058269835</v>
+      </c>
+    </row>
+    <row r="22" spans="2:111" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <f>B10+10</f>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="C22">
+        <f>C10+10</f>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ref="D22:BO22" si="4">D10+10</f>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="AG22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="AI22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="AJ22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="AK22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="AL22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="AM22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="AN22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="AO22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="AP22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="AQ22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="AR22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="AS22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="AT22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="AU22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="AV22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="AW22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="AX22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="AY22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="AZ22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="BA22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="BB22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="BC22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="BD22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="BE22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="BF22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="BG22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="BH22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="BI22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="BJ22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="BK22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="BL22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="BM22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="BN22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="BO22">
+        <f t="shared" si="4"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="BP22">
+        <f t="shared" ref="BP22:DG22" si="5">BP10+10</f>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="BQ22">
+        <f t="shared" si="5"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="BR22">
+        <f t="shared" si="5"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="BS22">
+        <f t="shared" si="5"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="BT22">
+        <f t="shared" si="5"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="BU22">
+        <f t="shared" si="5"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="BV22">
+        <f t="shared" si="5"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="BW22">
+        <f t="shared" si="5"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="BX22">
+        <f t="shared" si="5"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="BY22">
+        <f t="shared" si="5"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="BZ22">
+        <f t="shared" si="5"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="CA22">
+        <f t="shared" si="5"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="CB22">
+        <f t="shared" si="5"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="CC22">
+        <f t="shared" si="5"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="CD22">
+        <f t="shared" si="5"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="CE22">
+        <f t="shared" si="5"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="CF22">
+        <f t="shared" si="5"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="CG22">
+        <f t="shared" si="5"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="CH22">
+        <f t="shared" si="5"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="CI22">
+        <f t="shared" si="5"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="CJ22">
+        <f t="shared" si="5"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="CK22">
+        <f t="shared" si="5"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="CL22">
+        <f t="shared" si="5"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="CM22">
+        <f t="shared" si="5"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="CN22">
+        <f t="shared" si="5"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="CO22">
+        <f t="shared" si="5"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="CP22">
+        <f t="shared" si="5"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="CQ22">
+        <f t="shared" si="5"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="CR22">
+        <f t="shared" si="5"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="CS22">
+        <f t="shared" si="5"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="CT22">
+        <f t="shared" si="5"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="CU22">
+        <f t="shared" si="5"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="CV22">
+        <f t="shared" si="5"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="CW22">
+        <f t="shared" si="5"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="CX22">
+        <f t="shared" si="5"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="CY22">
+        <f t="shared" si="5"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="CZ22">
+        <f t="shared" si="5"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="DA22">
+        <f t="shared" si="5"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="DB22">
+        <f t="shared" si="5"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="DC22">
+        <f t="shared" si="5"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="DD22">
+        <f t="shared" si="5"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="DE22">
+        <f t="shared" si="5"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="DF22">
+        <f t="shared" si="5"/>
+        <v>81.4389058269835</v>
+      </c>
+      <c r="DG22">
+        <f t="shared" si="5"/>
+        <v>81.4389058269835</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
